--- a/public/downloads/Dėstytojų šablonas.xlsx
+++ b/public/downloads/Dėstytojų šablonas.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Dėstytojų importavimas</t>
   </si>
   <si>
-    <t xml:space="preserve">Asmens kodas</t>
+    <t xml:space="preserve">Gimimo data</t>
   </si>
   <si>
     <t xml:space="preserve">Pareigos</t>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pavardė</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datas rašyti kabutėse “”</t>
   </si>
 </sst>
 </file>
@@ -225,15 +228,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -255,6 +258,11 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
